--- a/Semilleros_Investigacion_2021.xlsx
+++ b/Semilleros_Investigacion_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CURSOS\3. Especialización Big Data\Caracterización Estadística de Datos - POSPROF2102C2-2021-20001\ejercicioOrganizacional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\2. Universidades\4. IUDigital\1.Especializacion_Analitica_BigData\Caracterización Estadística de Datos\F30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E60C7B-FD4C-4BF5-9BCC-A5E9D4CF56D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D357D-0822-49C1-840C-4792A020786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semilleros de Investigación - 2" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="269">
   <si>
     <t>1. Línea Matriz de Investigación en Sostenibilidad Ambiental.</t>
   </si>
@@ -832,6 +832,12 @@
   </si>
   <si>
     <t>rfi rpi</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -929,19 +935,12 @@
   </cellStyles>
   <dxfs count="39">
     <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1137,12 +1136,19 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1285,32 +1291,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:Z234" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
   <autoFilter ref="A1:Z234" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="26">
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CUMPLEAÑOS" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="EDAD" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="FECHA_INGRESO" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TIEMPO_INSTITUCION" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PAIS_RESIDENCIA" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEPARTAMENTO_RESIDENCIA" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="MUNICIPIO_RESIDENCIA" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="PROGRAMA_ACADEMICO" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="SEMESTRE_ACTUAL" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="EMPRESA" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="TRABAJO_ACTUAL" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TIEMPO_EXPERIENCIA_LABORAL" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="SECTOR_TRABAJO" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="PARTICIPACION_SEMILLEROS" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="SEMILLEROS_IUD" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="NOMBRE_PROYECTO" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="PRODUCCION_CIENTIFICA" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="EXPERIENCIA_INVESTIGACION" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="PRODUCTOS_INVESTIGACION" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="OTRO_PRODUCTO" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="INTERES_INVESTIGACION" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LINEA_MATRIZ_INTERES" dataDxfId="5"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="INTERES_SEMILLEROS" dataDxfId="4"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="SEXO" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CUMPLEAÑOS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="EDAD" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="FECHA_INGRESO" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TIEMPO_INSTITUCION" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PAIS_RESIDENCIA" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="DEPARTAMENTO_RESIDENCIA" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="MUNICIPIO_RESIDENCIA" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="PROGRAMA_ACADEMICO" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="SEMESTRE_ACTUAL" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="EMPRESA" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="TRABAJO_ACTUAL" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="TIEMPO_EXPERIENCIA_LABORAL" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="SECTOR_TRABAJO" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="PARTICIPACION_SEMILLEROS" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="SEMILLEROS_IUD" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="NOMBRE_PROYECTO" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="PRODUCCION_CIENTIFICA" dataDxfId="9"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="EXPERIENCIA_INVESTIGACION" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="PRODUCTOS_INVESTIGACION" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="OTRO_PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="INTERES_INVESTIGACION" dataDxfId="5"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LINEA_MATRIZ_INTERES" dataDxfId="4"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="INTERES_SEMILLEROS" dataDxfId="3"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="SEXO" dataDxfId="2"/>
     <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="TIPO_SANGRE" dataDxfId="1"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="SEMILLERO_ACTUAL" dataDxfId="2"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="SEMILLERO_ACTUAL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1520,41 +1526,41 @@
   <dimension ref="A1:AD234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K234"/>
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="65.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="65.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="139.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="60.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="66.140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="44.5703125" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="3"/>
+    <col min="10" max="10" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="139.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="60.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="66.109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="44.5546875" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
@@ -1634,7 +1640,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>30828</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>35692</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>29894</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>35434</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>34935</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>37376</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>32341</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>33061</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>36731</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>34597</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>30078</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>29857</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>33847</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>31526</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>33566</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>22754</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>25377</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>32040</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>33299</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>32599</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>29470</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>28688</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>25775</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>29216</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>35094</v>
       </c>
@@ -3424,7 +3430,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>38100</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>30529</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>32764</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>37503</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>34461</v>
       </c>
@@ -3763,7 +3769,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30459</v>
       </c>
@@ -3839,13 +3845,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>44196</v>
       </c>
-      <c r="B33" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+      <c r="B33" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="C33" s="6">
         <v>44089</v>
@@ -3911,7 +3916,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>30973</v>
       </c>
@@ -3983,7 +3988,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34727</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>37766</v>
       </c>
@@ -4127,7 +4132,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>35132</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>31331</v>
       </c>
@@ -4271,7 +4276,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>33556</v>
       </c>
@@ -4343,7 +4348,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>37868</v>
       </c>
@@ -4411,7 +4416,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>29751</v>
       </c>
@@ -4483,7 +4488,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>36146</v>
       </c>
@@ -4555,7 +4560,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>35078</v>
       </c>
@@ -4627,7 +4632,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>34539</v>
       </c>
@@ -4699,7 +4704,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>34993</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>29503</v>
       </c>
@@ -4843,7 +4848,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>33376</v>
       </c>
@@ -4911,7 +4916,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>36728</v>
       </c>
@@ -4985,7 +4990,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>37748</v>
       </c>
@@ -5053,7 +5058,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>34654</v>
       </c>
@@ -5121,7 +5126,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>31179</v>
       </c>
@@ -5189,7 +5194,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>29659</v>
       </c>
@@ -5261,7 +5266,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>34662</v>
       </c>
@@ -5329,7 +5334,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>29008</v>
       </c>
@@ -5401,7 +5406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>31919</v>
       </c>
@@ -5473,7 +5478,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>37856</v>
       </c>
@@ -5541,7 +5546,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>36975</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>30215</v>
       </c>
@@ -5681,7 +5686,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>33556</v>
       </c>
@@ -5761,7 +5766,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>37804</v>
       </c>
@@ -5829,7 +5834,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>33247</v>
       </c>
@@ -5901,7 +5906,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>33793</v>
       </c>
@@ -5973,7 +5978,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>37212</v>
       </c>
@@ -6041,7 +6046,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>35637</v>
       </c>
@@ -6117,7 +6122,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>37683</v>
       </c>
@@ -6185,7 +6190,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>37751</v>
       </c>
@@ -6253,7 +6258,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>28173</v>
       </c>
@@ -6325,7 +6330,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>36907</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>25124</v>
       </c>
@@ -6465,7 +6470,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>37370</v>
       </c>
@@ -6533,7 +6538,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>37367</v>
       </c>
@@ -6601,7 +6606,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>34016</v>
       </c>
@@ -6669,7 +6674,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>32426</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>33044</v>
       </c>
@@ -6813,7 +6818,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>33849</v>
       </c>
@@ -6885,7 +6890,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>33600</v>
       </c>
@@ -6963,7 +6968,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>37746</v>
       </c>
@@ -7031,7 +7036,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>34699</v>
       </c>
@@ -7103,7 +7108,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>34759</v>
       </c>
@@ -7175,7 +7180,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>32760</v>
       </c>
@@ -7251,7 +7256,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>34557</v>
       </c>
@@ -7327,7 +7332,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>29141</v>
       </c>
@@ -7399,7 +7404,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>30326</v>
       </c>
@@ -7475,7 +7480,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>30458</v>
       </c>
@@ -7547,7 +7552,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>31195</v>
       </c>
@@ -7619,7 +7624,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>32317</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>33191</v>
       </c>
@@ -7767,7 +7772,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>38444</v>
       </c>
@@ -7839,7 +7844,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>35365</v>
       </c>
@@ -7911,7 +7916,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>31436</v>
       </c>
@@ -7979,7 +7984,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>25687</v>
       </c>
@@ -8059,7 +8064,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>29911</v>
       </c>
@@ -8127,7 +8132,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>32900</v>
       </c>
@@ -8195,7 +8200,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>32724</v>
       </c>
@@ -8275,7 +8280,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>34946</v>
       </c>
@@ -8351,7 +8356,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>33112</v>
       </c>
@@ -8423,7 +8428,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>35740</v>
       </c>
@@ -8491,7 +8496,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>34612</v>
       </c>
@@ -8563,7 +8568,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>28755</v>
       </c>
@@ -8635,7 +8640,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>37963</v>
       </c>
@@ -8703,7 +8708,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>36985</v>
       </c>
@@ -8771,7 +8776,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>31412</v>
       </c>
@@ -8843,7 +8848,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>32761</v>
       </c>
@@ -8919,7 +8924,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>31633</v>
       </c>
@@ -8991,7 +8996,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>38107</v>
       </c>
@@ -9059,7 +9064,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>32162</v>
       </c>
@@ -9131,7 +9136,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>35923</v>
       </c>
@@ -9199,7 +9204,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>36922</v>
       </c>
@@ -9267,7 +9272,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>33259</v>
       </c>
@@ -9339,7 +9344,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>37496</v>
       </c>
@@ -9407,7 +9412,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>28408</v>
       </c>
@@ -9479,7 +9484,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>37847</v>
       </c>
@@ -9547,7 +9552,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>37330</v>
       </c>
@@ -9615,7 +9620,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>31691</v>
       </c>
@@ -9687,7 +9692,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>23357</v>
       </c>
@@ -9755,7 +9760,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>33515</v>
       </c>
@@ -9823,7 +9828,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>35889</v>
       </c>
@@ -9889,7 +9894,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>36487</v>
       </c>
@@ -9957,7 +9962,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>33138</v>
       </c>
@@ -10022,7 +10027,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>35071</v>
       </c>
@@ -10094,7 +10099,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>26246</v>
       </c>
@@ -10166,7 +10171,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>30911</v>
       </c>
@@ -10238,7 +10243,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>30563</v>
       </c>
@@ -10310,7 +10315,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>37030</v>
       </c>
@@ -10382,7 +10387,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>33080</v>
       </c>
@@ -10450,7 +10455,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>34124</v>
       </c>
@@ -10522,7 +10527,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>33943</v>
       </c>
@@ -10590,7 +10595,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>34679</v>
       </c>
@@ -10658,7 +10663,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>37931</v>
       </c>
@@ -10730,7 +10735,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>35955</v>
       </c>
@@ -10802,7 +10807,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>36545</v>
       </c>
@@ -10870,7 +10875,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>29234</v>
       </c>
@@ -10938,7 +10943,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>35886</v>
       </c>
@@ -11010,7 +11015,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>32104</v>
       </c>
@@ -11078,7 +11083,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>34038</v>
       </c>
@@ -11150,7 +11155,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>31075</v>
       </c>
@@ -11222,7 +11227,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>33188</v>
       </c>
@@ -11298,7 +11303,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>35468</v>
       </c>
@@ -11366,7 +11371,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>33741</v>
       </c>
@@ -11438,7 +11443,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>37622</v>
       </c>
@@ -11506,7 +11511,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>37946</v>
       </c>
@@ -11574,7 +11579,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>37685</v>
       </c>
@@ -11641,7 +11646,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>34861</v>
       </c>
@@ -11713,7 +11718,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>37785</v>
       </c>
@@ -11781,7 +11786,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>31149</v>
       </c>
@@ -11853,7 +11858,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>29552</v>
       </c>
@@ -11921,7 +11926,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>33252</v>
       </c>
@@ -11993,7 +11998,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>30705</v>
       </c>
@@ -12065,7 +12070,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>33009</v>
       </c>
@@ -12135,7 +12140,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>32102</v>
       </c>
@@ -12207,7 +12212,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>33287</v>
       </c>
@@ -12279,7 +12284,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>35292</v>
       </c>
@@ -12351,7 +12356,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>29585</v>
       </c>
@@ -12423,7 +12428,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>34869</v>
       </c>
@@ -12491,7 +12496,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>28114</v>
       </c>
@@ -12563,7 +12568,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>29559</v>
       </c>
@@ -12639,7 +12644,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>36656</v>
       </c>
@@ -12707,7 +12712,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>35793</v>
       </c>
@@ -12779,7 +12784,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>33968</v>
       </c>
@@ -12851,7 +12856,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>34133</v>
       </c>
@@ -12923,7 +12928,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>29660</v>
       </c>
@@ -12995,7 +13000,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>36277</v>
       </c>
@@ -13073,7 +13078,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>28668</v>
       </c>
@@ -13145,7 +13150,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>33263</v>
       </c>
@@ -13217,7 +13222,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>27857</v>
       </c>
@@ -13289,7 +13294,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>34981</v>
       </c>
@@ -13357,7 +13362,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>31335</v>
       </c>
@@ -13429,7 +13434,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>26935</v>
       </c>
@@ -13501,7 +13506,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>27366</v>
       </c>
@@ -13573,7 +13578,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>30985</v>
       </c>
@@ -13645,7 +13650,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>30816</v>
       </c>
@@ -13713,7 +13718,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>31854</v>
       </c>
@@ -13781,7 +13786,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>31753</v>
       </c>
@@ -13853,7 +13858,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>33906</v>
       </c>
@@ -13929,7 +13934,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>32808</v>
       </c>
@@ -13997,7 +14002,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>37615</v>
       </c>
@@ -14065,7 +14070,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>32267</v>
       </c>
@@ -14137,7 +14142,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>33790</v>
       </c>
@@ -14205,7 +14210,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>35458</v>
       </c>
@@ -14273,7 +14278,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>34043</v>
       </c>
@@ -14345,7 +14350,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>33116</v>
       </c>
@@ -14417,7 +14422,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>34286</v>
       </c>
@@ -14485,7 +14490,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>34094</v>
       </c>
@@ -14553,7 +14558,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>37019</v>
       </c>
@@ -14625,7 +14630,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>33806</v>
       </c>
@@ -14697,7 +14702,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>29274</v>
       </c>
@@ -14765,7 +14770,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>30432</v>
       </c>
@@ -14837,7 +14842,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>29649</v>
       </c>
@@ -14909,13 +14914,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>44335</v>
       </c>
-      <c r="B189" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+      <c r="B189" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="C189" s="11">
         <v>44329</v>
@@ -14985,7 +14989,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>34812</v>
       </c>
@@ -15057,7 +15061,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>35589</v>
       </c>
@@ -15118,7 +15122,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>32020</v>
       </c>
@@ -15185,7 +15189,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>28062</v>
       </c>
@@ -15252,7 +15256,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>32850</v>
       </c>
@@ -15319,7 +15323,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>35019</v>
       </c>
@@ -15380,7 +15384,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>31910</v>
       </c>
@@ -15441,7 +15445,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>26421</v>
       </c>
@@ -15508,7 +15512,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>30081</v>
       </c>
@@ -15581,7 +15585,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>35323</v>
       </c>
@@ -15642,7 +15646,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>31065</v>
       </c>
@@ -15709,7 +15713,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>32497</v>
       </c>
@@ -15776,7 +15780,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>35047</v>
       </c>
@@ -15837,7 +15841,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>31389</v>
       </c>
@@ -15904,7 +15908,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>35537</v>
       </c>
@@ -15971,7 +15975,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>23882</v>
       </c>
@@ -16038,7 +16042,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>34342</v>
       </c>
@@ -16105,7 +16109,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>32383</v>
       </c>
@@ -16172,7 +16176,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>33080</v>
       </c>
@@ -16233,7 +16237,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>34288</v>
       </c>
@@ -16306,7 +16310,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>30741</v>
       </c>
@@ -16373,7 +16377,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>29592</v>
       </c>
@@ -16449,7 +16453,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>34674</v>
       </c>
@@ -16510,7 +16514,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>32733</v>
       </c>
@@ -16580,7 +16584,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>37174</v>
       </c>
@@ -16641,7 +16645,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>31133</v>
       </c>
@@ -16708,7 +16712,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>37125</v>
       </c>
@@ -16775,7 +16779,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>37355</v>
       </c>
@@ -16836,7 +16840,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>30663</v>
       </c>
@@ -16897,7 +16901,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>37887</v>
       </c>
@@ -16958,7 +16962,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>37508</v>
       </c>
@@ -17019,7 +17023,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>35113</v>
       </c>
@@ -17086,7 +17090,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>37570</v>
       </c>
@@ -17147,7 +17151,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>35651</v>
       </c>
@@ -17214,7 +17218,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>38110</v>
       </c>
@@ -17281,7 +17285,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>37256</v>
       </c>
@@ -17342,7 +17346,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>37285</v>
       </c>
@@ -17409,7 +17413,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>32523</v>
       </c>
@@ -17470,7 +17474,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>33156</v>
       </c>
@@ -17537,7 +17541,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>37674</v>
       </c>
@@ -17598,7 +17602,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>30814</v>
       </c>
@@ -17659,7 +17663,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>29596</v>
       </c>
@@ -17726,7 +17730,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>37962</v>
       </c>
@@ -17784,7 +17788,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>31389</v>
       </c>
@@ -17851,7 +17855,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>34578</v>
       </c>
